--- a/Proplist.xlsx
+++ b/Proplist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.pournasserian\Desktop\ubeac-ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8126EA3A-D64F-441A-B371-3A64C7ADAE55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9C80B6-820B-4CE5-89B4-85FD69AC5E5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="785" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="32" r:id="rId1"/>
@@ -80,7 +80,18 @@
     <sheet name="DotNetHighcharts" sheetId="62" r:id="rId65"/>
     <sheet name="ScriptManager" sheetId="63" r:id="rId66"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2010,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32006,9 +32017,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -32022,7 +32039,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B2" t="s">
@@ -32055,7 +32072,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B5" t="s">
@@ -32066,7 +32083,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B6" t="s">
@@ -32077,7 +32094,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B7" t="s">
@@ -32088,7 +32105,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B8" t="s">
@@ -32110,7 +32127,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B10" t="s">
@@ -32121,7 +32138,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>503</v>
       </c>
       <c r="B11" t="s">
@@ -32143,7 +32160,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B13" t="s">
@@ -32154,7 +32171,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B14" t="s">
@@ -32165,7 +32182,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B15" t="s">
@@ -32176,7 +32193,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B16" t="s">
@@ -32187,7 +32204,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B17" t="s">
@@ -32198,7 +32215,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="s">
@@ -32209,7 +32226,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
@@ -32264,7 +32281,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B24" t="s">
@@ -32286,7 +32303,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B26" t="s">
@@ -32297,7 +32314,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B27" t="s">
@@ -32451,7 +32468,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B41" t="s">
@@ -32550,7 +32567,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B50" t="s">
@@ -32748,7 +32765,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B68" t="s">
